--- a/data/trans_orig/P36B04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B04_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3346F65-0756-4973-BEDF-9F1B50A8E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B92E96BE-7535-48A8-B37A-536BCD1EE513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1AEBC51-B6C8-4469-B002-9D180C8D5BF8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13FC6AC3-BFC8-4733-8F9B-8843C8243FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="262">
   <si>
     <t>Población según el número de piezas de fruta que consume al día en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más veces por semana</t>
@@ -104,28 +104,28 @@
     <t>23,0%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>23,09%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>Diariamente aunque menos de tres veces al día</t>
@@ -134,28 +134,28 @@
     <t>54,89%</t>
   </si>
   <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
   </si>
   <si>
     <t>52,96%</t>
   </si>
   <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>Tres o más al día</t>
@@ -164,28 +164,28 @@
     <t>15,52%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,631 +197,625 @@
     <t>10,38%</t>
   </si>
   <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>5,35%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>19,4%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>18,55%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>20,86%</t>
@@ -1239,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C2CEF-EBB4-4F26-A51B-C9DCF6137160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DBAA12-2D34-412F-B5DF-7C7FBE2E9BCD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1704,10 +1698,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1716,10 @@
         <v>223361</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>71</v>
@@ -1791,10 +1785,10 @@
         <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>110</v>
@@ -1803,13 +1797,13 @@
         <v>140257</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,7 +1958,7 @@
         <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1973,13 @@
         <v>315612</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>498</v>
@@ -1994,13 +1988,13 @@
         <v>350981</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>805</v>
@@ -2009,13 +2003,13 @@
         <v>666593</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2024,13 @@
         <v>98570</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2045,13 +2039,13 @@
         <v>105666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -2060,13 +2054,13 @@
         <v>204235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,7 +2116,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2128,13 @@
         <v>49509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
@@ -2149,13 +2143,13 @@
         <v>40436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -2164,13 +2158,13 @@
         <v>89945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2179,13 @@
         <v>122828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>179</v>
@@ -2200,13 +2194,13 @@
         <v>108847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>303</v>
@@ -2215,13 +2209,13 @@
         <v>231675</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2230,13 @@
         <v>406832</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>662</v>
@@ -2251,13 +2245,13 @@
         <v>431399</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>1016</v>
@@ -2266,13 +2260,13 @@
         <v>838231</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2281,13 @@
         <v>144820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
         <v>234</v>
@@ -2302,13 +2296,13 @@
         <v>165588</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -2317,13 +2311,13 @@
         <v>310408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2373,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2385,13 @@
         <v>29450</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2406,13 +2400,13 @@
         <v>29208</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -2421,13 +2415,13 @@
         <v>58658</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2436,13 @@
         <v>95855</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -2457,13 +2451,13 @@
         <v>75245</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
@@ -2472,13 +2466,13 @@
         <v>171100</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2487,13 @@
         <v>357616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -2508,13 +2502,13 @@
         <v>369421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>1007</v>
@@ -2523,13 +2517,13 @@
         <v>727037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2538,13 @@
         <v>116159</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>211</v>
@@ -2559,13 +2553,13 @@
         <v>122646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>334</v>
@@ -2574,13 +2568,13 @@
         <v>238805</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2630,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2642,13 @@
         <v>22491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -2663,13 +2657,13 @@
         <v>133231</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -2678,13 +2672,13 @@
         <v>155721</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2693,13 @@
         <v>92004</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>197</v>
@@ -2714,13 +2708,13 @@
         <v>106252</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>328</v>
@@ -2729,13 +2723,13 @@
         <v>198256</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,16 +2741,16 @@
         <v>618</v>
       </c>
       <c r="D31" s="7">
-        <v>413867</v>
+        <v>413868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>1019</v>
@@ -2765,13 +2759,13 @@
         <v>547132</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>1637</v>
@@ -2780,13 +2774,13 @@
         <v>961000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,16 +2792,16 @@
         <v>249</v>
       </c>
       <c r="D32" s="7">
-        <v>169392</v>
+        <v>169393</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>447</v>
@@ -2816,13 +2810,13 @@
         <v>237804</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>696</v>
@@ -2831,13 +2825,13 @@
         <v>407197</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2843,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2905,13 +2899,13 @@
         <v>203091</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H34" s="7">
         <v>246</v>
@@ -2920,13 +2914,13 @@
         <v>302285</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>420</v>
@@ -2935,7 +2929,7 @@
         <v>505376</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>235</v>
@@ -2959,10 +2953,10 @@
         <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>788</v>
@@ -2971,13 +2965,13 @@
         <v>560657</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="M35" s="7">
         <v>1373</v>
@@ -2986,13 +2980,13 @@
         <v>1162419</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3001,13 @@
         <v>1924589</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>3173</v>
@@ -3022,13 +3016,13 @@
         <v>2174604</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>5106</v>
@@ -3037,13 +3031,13 @@
         <v>4099194</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3052,13 @@
         <v>654549</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>1150</v>
@@ -3073,13 +3067,13 @@
         <v>766671</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>1832</v>
@@ -3088,13 +3082,13 @@
         <v>1421220</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3144,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
